--- a/zpi-backend/src/test/resources/poprawny_plik_studenci.xlsx
+++ b/zpi-backend/src/test/resources/poprawny_plik_studenci.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zpi-student-project-management\zpi-backend\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBA6DA8-8E96-4F3C-A34D-D7C2B36E94CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50F0151-533C-4C5E-8A50-9A849CCBA098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{2BB488A1-D112-4C09-9CB3-AA5AC5ED0F07}"/>
+    <workbookView xWindow="1635" yWindow="2010" windowWidth="21600" windowHeight="11295" xr2:uid="{2BB488A1-D112-4C09-9CB3-AA5AC5ED0F07}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -670,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC910A35-DBA4-4745-A5B9-408A7516FAA4}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1332,7 +1332,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>998090</v>
+        <v>998091</v>
       </c>
       <c r="B29" t="s">
         <v>44</v>
@@ -1608,7 +1608,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
-        <v>99809</v>
+        <v>998091</v>
       </c>
       <c r="B41" t="s">
         <v>44</v>

--- a/zpi-backend/src/test/resources/poprawny_plik_studenci.xlsx
+++ b/zpi-backend/src/test/resources/poprawny_plik_studenci.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zpi-student-project-management\zpi-backend\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBA6DA8-8E96-4F3C-A34D-D7C2B36E94CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379A4527-51EC-4EAC-9904-37F956080BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{2BB488A1-D112-4C09-9CB3-AA5AC5ED0F07}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2BB488A1-D112-4C09-9CB3-AA5AC5ED0F07}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -670,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC910A35-DBA4-4745-A5B9-408A7516FAA4}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A53" sqref="A1:XFD53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1608,7 +1608,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
-        <v>99809</v>
+        <v>998090</v>
       </c>
       <c r="B41" t="s">
         <v>44</v>
